--- a/Team-Data/2008-09/1-22-2008-09.xlsx
+++ b/Team-Data/2008-09/1-22-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -759,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -777,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
         <v>18</v>
@@ -789,7 +856,7 @@
         <v>19</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -816,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -863,19 +930,19 @@
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="N3" t="n">
         <v>0.381</v>
@@ -884,64 +951,64 @@
         <v>20.6</v>
       </c>
       <c r="P3" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
         <v>32.1</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U3" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V3" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB3" t="n">
         <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
@@ -962,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -986,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -998,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1138,7 +1205,7 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -1212,85 +1279,85 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.405</v>
+        <v>0.419</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>22.9</v>
+        <v>23.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.798</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1299,13 +1366,13 @@
         <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
@@ -1317,16 +1384,16 @@
         <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1338,13 +1405,13 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1353,19 +1420,19 @@
         <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
         <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.821</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L6" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.368</v>
+        <v>0.365</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.756</v>
@@ -1439,40 +1506,40 @@
         <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
         <v>41.5</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>4</v>
@@ -1481,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1496,25 +1563,25 @@
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
         <v>7</v>
@@ -1535,16 +1602,16 @@
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>0.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>24</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -2033,7 +2100,7 @@
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ9" t="n">
         <v>18</v>
@@ -2066,10 +2133,10 @@
         <v>14</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV9" t="n">
         <v>2</v>
@@ -2081,13 +2148,13 @@
         <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
         <v>14</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
         <v>4</v>
@@ -2251,10 +2318,10 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2482,7 @@
         <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2433,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
@@ -2451,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2588,19 +2655,19 @@
         <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>19</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2624,10 +2691,10 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2782,7 +2849,7 @@
         <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>25</v>
@@ -2794,13 +2861,13 @@
         <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -2865,52 +2932,52 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="J14" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.4</v>
@@ -2922,22 +2989,22 @@
         <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2946,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>10</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3149,10 +3216,10 @@
         <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3307,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3328,16 +3395,16 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>24</v>
@@ -3358,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" t="n">
         <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.477</v>
+        <v>0.467</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.449</v>
@@ -3426,31 +3493,31 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O17" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R17" t="n">
         <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,16 +3529,16 @@
         <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,13 +3547,13 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3504,25 +3571,25 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3741,7 @@
         <v>14</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3683,16 +3750,16 @@
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
         <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
         <v>17</v>
@@ -3704,10 +3771,10 @@
         <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3865,10 +3932,10 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
@@ -3913,7 +3980,7 @@
         <v>14</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
@@ -4044,7 +4111,7 @@
         <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
         <v>12</v>
@@ -4053,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
@@ -4065,7 +4132,7 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT20" t="n">
         <v>29</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4086,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-3.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
@@ -4259,7 +4326,7 @@
         <v>22</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4277,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4466,7 @@
         <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
         <v>11</v>
@@ -4417,13 +4484,13 @@
         <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -4488,103 +4555,103 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
         <v>33</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.786</v>
+        <v>0.805</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="M23" t="n">
         <v>26</v>
       </c>
       <c r="N23" t="n">
-        <v>0.401</v>
+        <v>0.403</v>
       </c>
       <c r="O23" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P23" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q23" t="n">
         <v>0.719</v>
       </c>
       <c r="R23" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U23" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z23" t="n">
         <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.8</v>
+        <v>102.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>2</v>
       </c>
       <c r="AF23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4602,7 +4669,7 @@
         <v>12</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4623,13 +4690,13 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX23" t="n">
         <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
@@ -4638,10 +4705,10 @@
         <v>8</v>
       </c>
       <c r="BB23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4769,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>28</v>
@@ -4781,10 +4848,10 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
@@ -4796,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -4936,7 +5003,7 @@
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4975,7 +5042,7 @@
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.61</v>
+        <v>0.595</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.458</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M26" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O26" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P26" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.767</v>
+        <v>0.764</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
@@ -5082,10 +5149,10 @@
         <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5100,43 +5167,43 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
         <v>10</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,10 +5227,10 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,22 +5239,22 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5367,7 @@
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
@@ -5309,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5318,7 +5385,7 @@
         <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
@@ -5515,13 +5582,13 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
@@ -5551,7 +5618,7 @@
         <v>21</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5673,13 +5740,13 @@
         <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>18</v>
@@ -5691,10 +5758,10 @@
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5952,7 @@
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5900,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
         <v>25</v>
@@ -5912,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.214</v>
+        <v>0.22</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5971,73 +6038,73 @@
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N31" t="n">
         <v>0.317</v>
       </c>
       <c r="O31" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P31" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T31" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U31" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V31" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W31" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.7</v>
+        <v>-6.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG31" t="n">
         <v>28</v>
       </c>
-      <c r="AG31" t="n">
-        <v>29</v>
-      </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6061,7 +6128,7 @@
         <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
@@ -6073,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-22-2008-09</t>
+          <t>2009-01-22</t>
         </is>
       </c>
     </row>
